--- a/protists/marine_protists/marine_protists_data (copy).xlsx
+++ b/protists/marine_protists/marine_protists_data (copy).xlsx
@@ -1,250 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView activeTab="4" firstSheet="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="de Vargas" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="POC" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Bochdansky ratio" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Bochdansky biomass" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pernice" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="POC prokaryotes" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="de Vargas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POC" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bochdansky ratio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bochdansky biomass" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pernice" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="POC prokaryotes" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Remarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data extracted from figure 5A. Heterotrophic protists include both heterotrophic protists and Photosymbiontic host</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phototrophic protists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heterotrophic protist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depth [m]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration of Bacteria [cells mL^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration of Flagellates [cells mL^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turley &amp; Mackie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jstor.org/stable/24849742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Table 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herndl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.jstor.org/stable/24827742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Table 1. Monads excluded as their biomass is neglegible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Figure 4B of Bochdansky et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio between particle-attached eukaryotes and prokaryotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Eukaryotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kinetoplastids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labyrinthulomycetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fungi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Table 1 in Bochdansky et al.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min biomass ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max biomass ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newell and Statzell-Tallman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menden-Deuer and Lessard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">van Veen and Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist cell volumes from Table 1 and using the conversion equation reported in the paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist cell volumes [µm^3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protist carbon content [pg C cell^-1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200-450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">451-700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701-1400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1401-4000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon content of particle-attached prokaryotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg C cell^-1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Data extracted from figure 5A. Heterotrophic protists include both heterotrophic protists and Photosymbiontic host</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Phototrophic protists</t>
+  </si>
+  <si>
+    <t>Heterotrophic protist</t>
+  </si>
+  <si>
+    <t>NAO</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SPO</t>
+  </si>
+  <si>
+    <t>Depth [m]</t>
+  </si>
+  <si>
+    <t>Concentration of Bacteria [cells mL^-1]</t>
+  </si>
+  <si>
+    <t>Concentration of Flagellates [cells mL^-1]</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Turley &amp; Mackie</t>
+  </si>
+  <si>
+    <t>http://www.jstor.org/stable/24849742</t>
+  </si>
+  <si>
+    <t>Taken from Table 2</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>Herndl</t>
+  </si>
+  <si>
+    <t>http://www.jstor.org/stable/24827742</t>
+  </si>
+  <si>
+    <t>Taken from Table 1. Monads excluded as their biomass is neglegible</t>
+  </si>
+  <si>
+    <t>Taken from Figure 4B of Bochdansky et al.</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Ratio between particle-attached eukaryotes and prokaryotes</t>
+  </si>
+  <si>
+    <t>All Eukaryotes</t>
+  </si>
+  <si>
+    <t>Kinetoplastids</t>
+  </si>
+  <si>
+    <t>Labyrinthulomycetes</t>
+  </si>
+  <si>
+    <t>Fungi</t>
+  </si>
+  <si>
+    <t>Taken from Table 1 in Bochdansky et al.</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Min biomass ratio</t>
+  </si>
+  <si>
+    <t>Max biomass ratio</t>
+  </si>
+  <si>
+    <t>Newell and Statzell-Tallman</t>
+  </si>
+  <si>
+    <t>Menden-Deuer and Lessard</t>
+  </si>
+  <si>
+    <t>van Veen and Paul</t>
+  </si>
+  <si>
+    <t>Protist cell volumes from Table 1 and using the conversion equation reported in the paper</t>
+  </si>
+  <si>
+    <t>Protist cell volumes [µm^3]</t>
+  </si>
+  <si>
+    <t>Protist carbon content [pg C cell^-1]</t>
+  </si>
+  <si>
+    <t>200-450</t>
+  </si>
+  <si>
+    <t>451-700</t>
+  </si>
+  <si>
+    <t>701-1400</t>
+  </si>
+  <si>
+    <t>1401-4000</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>Carbon content of particle-attached prokaryotes</t>
+  </si>
+  <si>
+    <t>fg C cell^-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -252,679 +247,954 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="1" sqref="B2:B6 C42"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C42" activeCellId="1" pane="topLeft" sqref="B2:B6 C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="11.34"/>
+    <col customWidth="1" max="1" min="1" style="8" width="7.15"/>
+    <col customWidth="1" max="2" min="2" style="8" width="12.69"/>
+    <col customWidth="1" max="1025" min="3" style="8" width="11.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="9" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="9" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="9" spans="1:4">
+      <c r="A3" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="8" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="8" t="n">
         <v>0.385416666666666</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="9" spans="1:4">
+      <c r="A4" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="8" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="8" t="n">
         <v>0.411458333333333</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="9" spans="1:4">
+      <c r="A5" s="8" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="8" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="8" t="n">
         <v>0.354166666666667</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="6" s="9" spans="1:4">
+      <c r="A6" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="8" t="n">
         <v>0.0729166666666667</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="8" t="n">
         <v>0.260416666666667</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="7" s="9" spans="1:4">
+      <c r="A7" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="8" t="n">
         <v>0.21875</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="8" t="n">
         <v>0.40625</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="8" s="9" spans="1:4">
+      <c r="A8" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="8" t="n">
         <v>0.255208333333333</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="8" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="9" s="9" spans="1:4">
+      <c r="A9" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="8" t="n">
         <v>0.171875</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.432291666666667</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="10" s="9" spans="1:4">
+      <c r="A10" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="8" t="n">
         <v>0.078125</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="8" t="n">
         <v>0.354166666666666</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="11" s="9" spans="1:4">
+      <c r="A11" s="8" t="n">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="8" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="8" t="n">
         <v>0.598958333333333</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="12" s="9" spans="1:4">
+      <c r="A12" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="8" t="n">
         <v>0.1875</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="8" t="n">
         <v>0.604166666666667</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="13" s="9" spans="1:4">
+      <c r="A13" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="8" t="n">
         <v>0.203125</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="8" t="n">
         <v>0.354166666666667</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="14" s="9" spans="1:4">
+      <c r="A14" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="8" t="n">
         <v>0.192708333333333</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="8" t="n">
         <v>0.505208333333333</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="15" s="9" spans="1:4">
+      <c r="A15" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="8" t="n">
         <v>0.15625</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="8" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="16" s="9" spans="1:4">
+      <c r="A16" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="8" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="8" t="n">
         <v>0.463541666666667</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="17" s="9" spans="1:4">
+      <c r="A17" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="8" t="n">
         <v>0.161458333333333</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="8" t="n">
         <v>0.489583333333333</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="18" s="9" spans="1:4">
+      <c r="A18" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="8" t="n">
         <v>0.239583333333333</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="8" t="n">
         <v>0.390625</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="19" s="9" spans="1:4">
+      <c r="A19" s="8" t="n">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="8" t="n">
         <v>0.182291666666667</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="8" t="n">
         <v>0.479166666666666</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="20" s="9" spans="1:4">
+      <c r="A20" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="8" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="8" t="n">
         <v>0.473958333333333</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="21" s="9" spans="1:4">
+      <c r="A21" s="8" t="n">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="8" t="n">
         <v>0.234375</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="8" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="22" s="9" spans="1:4">
+      <c r="A22" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="8" t="n">
         <v>0.208333333333333</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="8" t="n">
         <v>0.520833333333334</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="23" s="9" spans="1:4">
+      <c r="A23" s="8" t="n">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="8" t="n">
         <v>0.0885416666666667</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="8" t="n">
         <v>0.401041666666667</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="24" s="9" spans="1:4">
+      <c r="A24" s="8" t="n">
         <v>66</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="8" t="n">
         <v>0.28125</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="8" t="n">
         <v>0.447916666666667</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="25" s="9" spans="1:4">
+      <c r="A25" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="8" t="n">
         <v>0.354166666666667</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="8" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="26" s="9" spans="1:4">
+      <c r="A26" s="8" t="n">
         <v>68</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="8" t="n">
         <v>0.302083333333333</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="8" t="n">
         <v>0.359375</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="27" s="9" spans="1:4">
+      <c r="A27" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="8" t="n">
         <v>0.213541666666667</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="8" t="n">
         <v>0.421875</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="28" s="9" spans="1:4">
+      <c r="A28" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28" s="8" t="n">
         <v>0.203125</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="8" t="n">
         <v>0.552083333333333</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="29" s="9" spans="1:4">
+      <c r="A29" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29" s="8" t="n">
         <v>0.234375</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="8" t="n">
         <v>0.395833333333333</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="30" s="9" spans="1:4">
+      <c r="A30" s="8" t="n">
         <v>78</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30" s="8" t="n">
         <v>0.286458333333333</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="8" t="n">
         <v>0.432291666666667</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="31" s="9" spans="1:4">
+      <c r="A31" s="8" t="n">
         <v>82</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31" s="8" t="n">
         <v>0.453125</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="8" t="n">
         <v>0.328125</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="32" s="9" spans="1:4">
+      <c r="A32" s="8" t="n">
         <v>84</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32" s="8" t="n">
         <v>0.364583333333333</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="8" t="n">
         <v>0.276041666666667</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="33" s="9" spans="1:4">
+      <c r="A33" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33" s="8" t="n">
         <v>0.286458333333333</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="8" t="n">
         <v>0.40625</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="34" s="9" spans="1:4">
+      <c r="A34" s="8" t="n">
         <v>98</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34" s="8" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="8" t="n">
         <v>0.479166666666667</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="35" s="9" spans="1:4">
+      <c r="A35" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35" s="8" t="n">
         <v>0.234375</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="8" t="n">
         <v>0.401041666666667</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="36" s="9" spans="1:4">
+      <c r="A36" s="8" t="n">
         <v>102</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36" s="8" t="n">
         <v>0.151041666666667</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="8" t="n">
         <v>0.546875</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="37" s="9" spans="1:4">
+      <c r="A37" s="8" t="n">
         <v>109</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37" s="8" t="n">
         <v>0.15625</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="8" t="n">
         <v>0.369791666666667</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="38" s="9" spans="1:4">
+      <c r="A38" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38" s="8" t="n">
         <v>0.197916666666667</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="8" t="n">
         <v>0.442708333333333</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="39" s="9" spans="1:4">
+      <c r="A39" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39" s="8" t="n">
         <v>0.223958333333333</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="8" t="n">
         <v>0.421875</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="40" s="9" spans="1:4">
+      <c r="A40" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40" s="8" t="n">
         <v>0.260416666666667</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="8" t="n">
         <v>0.291666666666667</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="41" s="9" spans="1:4">
+      <c r="A41" s="8" t="n">
         <v>124</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41" s="8" t="n">
         <v>0.15625</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="8" t="n">
         <v>0.526041666666667</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="42" s="9" spans="1:4">
+      <c r="A42" s="8" t="n">
         <v>125</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42" s="8" t="n">
         <v>0.182291666666667</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="8" t="n">
         <v>0.453125</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -936,7 +1206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -948,7 +1218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="colorScale" priority="4">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -960,7 +1230,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="colorScale" priority="5">
+    <cfRule priority="5" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -972,7 +1242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="colorScale" priority="6">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -984,7 +1254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="colorScale" priority="7">
+    <cfRule priority="7" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -996,7 +1266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="colorScale" priority="8">
+    <cfRule priority="8" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1008,7 +1278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="colorScale" priority="9">
+    <cfRule priority="9" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1020,7 +1290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="colorScale" priority="10">
+    <cfRule priority="10" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1032,7 +1302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="colorScale" priority="11">
+    <cfRule priority="11" type="colorScale">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1043,912 +1313,941 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="B2:B6 D16"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D16" activeCellId="1" pane="topLeft" sqref="B2:B6 D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="9" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="2" s="9" spans="1:6">
+      <c r="A2" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="10" t="n">
         <v>210000000</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="9" spans="1:6">
+      <c r="A3" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="10" t="n">
         <v>1730000000</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="10" t="n">
         <v>33000000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="4" s="9" spans="1:6">
+      <c r="A4" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="10" t="n">
         <v>2540000000</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="10" t="n">
         <v>29900000</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="5" s="9" spans="1:6">
+      <c r="A5" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="10" t="n">
         <v>820000000</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="10" t="n">
         <v>3200000</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="6" s="9" spans="1:6">
+      <c r="A6" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="10" t="n">
         <v>250000000</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="10" t="n">
         <v>1300000</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="7" s="9" spans="1:6">
+      <c r="A7" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="10" t="n">
         <v>30000000</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="8" s="9" spans="1:6">
+      <c r="A8" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="10" t="n">
         <v>570000000</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="9" s="9" spans="1:6">
+      <c r="A9" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="10" t="n">
         <v>2110000000</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="10" s="9" spans="1:6">
+      <c r="A10" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="10" t="n">
         <v>610000000</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="11" s="9" spans="1:6">
+      <c r="A11" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="10" t="n">
         <v>300000000</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="10" t="n">
         <v>2900000</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="12" s="9" spans="1:6">
+      <c r="A12" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="10" t="n">
         <v>340000000</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="10" t="n">
         <v>3800000</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="13" s="9" spans="1:6">
+      <c r="A13" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="10" t="n">
         <v>130000000</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="10" t="n">
         <v>1000000</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="14" s="9" spans="1:6">
+      <c r="A14" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="10" t="n">
         <v>510000000</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="10" t="n">
         <v>4500000</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="15" s="9" spans="1:6">
+      <c r="A15" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="10" t="n">
         <v>130000000</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="10" t="n">
         <v>1500000</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="16" s="9" spans="1:6">
+      <c r="A16" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="10" t="n">
         <v>3780000000</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="10" t="n">
         <v>4000000</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="17" s="9" spans="1:6">
+      <c r="A17" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="10" t="n">
         <v>2867000000</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="10" t="n">
         <v>4300000</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="18" s="9" spans="1:6">
+      <c r="A18" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="10" t="n">
         <v>3390000000</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="10" t="n">
         <v>2500000</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="19" s="9" spans="1:6">
+      <c r="A19" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="10" t="n">
         <v>2810000000</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="10" t="n">
         <v>1000000</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row customHeight="1" ht="12.8" r="20" s="9" spans="1:6">
+      <c r="A20" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="10" t="n">
         <v>3760000000</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="10" t="n">
         <v>200000</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="21" s="9" spans="1:6">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="10" t="n">
         <v>55900000</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="10" t="n">
         <v>1750000</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="22" s="9" spans="1:6">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="10" t="n">
         <v>15200000</v>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="C22" s="10" t="n">
         <v>1290000</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="23" s="9" spans="1:6">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="10" t="n">
         <v>2500000</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="24" s="9" spans="1:6">
+      <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="10" t="n">
         <v>5800000</v>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="C24" s="10" t="n">
         <v>180000</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="25" s="9" spans="1:6">
+      <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="10" t="n">
         <v>19500000</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="10" t="n">
         <v>280000</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="26" s="9" spans="1:6">
+      <c r="A26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="10" t="n">
         <v>1300000</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="10" t="n">
         <v>20000</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="27" s="9" spans="1:6">
+      <c r="A27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="10" t="n">
         <v>110400000</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="10" t="n">
         <v>2070000</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="28" s="9" spans="1:6">
+      <c r="A28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="10" t="n">
         <v>2100000</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C28" s="10" t="n">
         <v>30000</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="29" s="9" spans="1:6">
+      <c r="A29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="10" t="n">
         <v>35600000</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="10" t="n">
         <v>520000</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="8" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="B2:B6 A5"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A5" activeCellId="1" pane="topLeft" sqref="B2:B6 A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="9" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="9" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="3" s="9" spans="1:3">
+      <c r="A3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="8" t="n">
         <v>0.00554083885209713</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="9" spans="1:3">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="8" t="n">
         <v>0.00112582781456954</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="23.85" r="5" s="9" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="8" t="n">
         <v>0.000794701986754967</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="9" spans="1:3">
+      <c r="A6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="8" t="n">
         <v>0.00112582781456954</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="10" t="n"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B2:B6"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B6" activeCellId="0" pane="topLeft" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="9" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="C1" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="2" s="9" spans="1:3">
+      <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row customHeight="1" ht="55.5" r="3" s="9" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="8" t="n">
         <v>0.23</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="8" t="n">
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row customHeight="1" ht="55.5" r="4" s="9" spans="1:3">
+      <c r="A4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="8" t="n">
         <v>0.29</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="8" t="n">
         <v>1.29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row customHeight="1" ht="28.5" r="5" s="9" spans="1:3">
+      <c r="A5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="8" t="n">
         <v>0.37</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="8" t="n">
         <v>0.37</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B6"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="9" spans="1:4">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="9" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="3" s="9" spans="1:4">
+      <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="8" t="n">
         <v>3.7671912517321</v>
       </c>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="4" s="9" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="8" t="n">
         <v>4.60377112724219</v>
       </c>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="5" s="9" spans="1:4">
+      <c r="A5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="8" t="n">
         <v>5.75888413235764</v>
       </c>
-      <c r="D5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="8" t="n"/>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="9" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="8" t="n">
         <v>48</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="8" t="n">
         <v>8.18727302094597</v>
       </c>
-      <c r="D6" s="0"/>
+      <c r="D6" s="8" t="n"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="B2:B6 D2"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D2" activeCellId="1" pane="topLeft" sqref="B2:B6 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="9" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row customHeight="1" ht="12.8" r="2" s="9" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>35.967360464408</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8" t="n">
+        <v>35.96736046440802</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>2.85062988958192</v>
+      <c r="D2" s="8" t="n">
+        <v>2.850629889581922</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>